--- a/fastqFiles/fastq_1045.xlsx
+++ b/fastqFiles/fastq_1045.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BDD2B7-E140-4341-9517-7AF21056A7E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B279D1E-2E93-9A4E-A882-D2D4BB43C468}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25260" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25260" windowHeight="10480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="27">
   <si>
     <t>libraryDate</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>S.GISH</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
   </si>
 </sst>
 </file>
@@ -464,7 +467,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B19 E2:E19"/>
+      <selection activeCell="D20" sqref="D20:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -503,7 +506,7 @@
         <v>1045</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -523,7 +526,7 @@
         <v>1045</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -543,7 +546,7 @@
         <v>1045</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -563,7 +566,7 @@
         <v>1045</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -583,7 +586,7 @@
         <v>1045</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -603,7 +606,7 @@
         <v>1045</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -623,7 +626,7 @@
         <v>1045</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -643,7 +646,7 @@
         <v>1045</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -663,7 +666,7 @@
         <v>1045</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -683,7 +686,7 @@
         <v>1045</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -703,7 +706,7 @@
         <v>1045</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -723,7 +726,7 @@
         <v>1045</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -743,7 +746,7 @@
         <v>1045</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -763,7 +766,7 @@
         <v>1045</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -783,7 +786,7 @@
         <v>1045</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
@@ -803,7 +806,7 @@
         <v>1045</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -823,7 +826,7 @@
         <v>1045</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
@@ -843,7 +846,7 @@
         <v>1045</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>

--- a/fastqFiles/fastq_1045.xlsx
+++ b/fastqFiles/fastq_1045.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
